--- a/MÉTRICAS/MÉTRICAS OO SAVEMONEY.xlsx
+++ b/MÉTRICAS/MÉTRICAS OO SAVEMONEY.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>MÉTRICAS SAVEMONEY</t>
   </si>
@@ -43,6 +43,15 @@
     <t>TESTES</t>
   </si>
   <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Filial</t>
+  </si>
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
     <t>Pessoa</t>
   </si>
   <si>
@@ -55,7 +64,7 @@
     <t>Despesa</t>
   </si>
   <si>
-    <t>20% de 4 = 0.8</t>
+    <t>20% de 7 = 1.4</t>
   </si>
   <si>
     <t>LEGENDA</t>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>3º</t>
+  </si>
+  <si>
+    <t>Número de Operações e atributos novos na subclasse</t>
   </si>
 </sst>
 </file>
@@ -209,13 +221,19 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -236,16 +254,10 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -461,6 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -514,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="8">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="8">
         <v>0.0</v>
@@ -541,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="8">
         <v>0.0</v>
@@ -553,156 +566,244 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="8">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" s="8">
         <v>0.0</v>
       </c>
       <c r="H4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="8">
         <v>4.0</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8">
         <v>8.0</v>
       </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="G8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
         <v>4.0</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="C9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="8">
         <v>8.0</v>
       </c>
-      <c r="G6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="G9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>